--- a/Data/nexkell.xlsx
+++ b/Data/nexkell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>egysйg</t>
   </si>
@@ -55,16 +55,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
 </sst>
 </file>
@@ -465,7 +456,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -479,13 +470,13 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -496,16 +487,16 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -519,13 +510,13 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -539,13 +530,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -559,13 +550,13 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data/nexkell.xlsx
+++ b/Data/nexkell.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
-    <t>egysйg</t>
+    <t>egység</t>
   </si>
   <si>
     <t>kell</t>
@@ -34,7 +34,7 @@
     <t>kapfel</t>
   </si>
   <si>
-    <t>Dйvavбnya teljesнtmйnybйres</t>
+    <t>Dévaványa teljesítménybéres</t>
   </si>
   <si>
     <t>Varroda 1</t>
